--- a/data/trans_bre/P25_6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,7 +652,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +662,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-17,51%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>-17,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-17,63%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,7</t>
+          <t>-3,73; 1,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,73</t>
+          <t>-1,86; 3,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,89</t>
+          <t>-3,4; 2,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,65</t>
+          <t>-2,01; 5,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 43,96</t>
+          <t>-1,87; 3,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 84,81</t>
+          <t>-4,67; 1,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 40,83</t>
+          <t>-50,56; 32,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 75,92</t>
+          <t>-25,94; 66,24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-42,15; 40,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-23,75; 93,78</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-26,21; 74,41</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-47,1; 25,53</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>2,73</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-7,76%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>67,48%</t>
+          <t>18,89%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67,61%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>181,36%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 2,52</t>
+          <t>-2,98; 4,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,25</t>
+          <t>-1,75; 2,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,51</t>
+          <t>-2,46; 5,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 8,4</t>
+          <t>-3,49; 4,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,94; 61,2</t>
+          <t>-1,86; 8,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 126,65</t>
+          <t>1,2; 9,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 78,39</t>
+          <t>-40,88; 98,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 348,79</t>
+          <t>-36,61; 105,5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; 105,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,58; 78,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-42,5; 324,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21,66; 686,63</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-36,68%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>-28,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,67%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>76,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 3,14</t>
+          <t>-11,02; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,56</t>
+          <t>-6,27; 5,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 12,5</t>
+          <t>-3,06; 11,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-2,2; 10,98</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-76,54; 70,9</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 131,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 346,69</t>
+          <t>-72,28; 71,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-57,87; 119,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-34,24; 291,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-53,62; 512,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,31</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-18,28%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,03</t>
+          <t>-2,86; 1,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,49</t>
+          <t>-1,11; 2,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,41</t>
+          <t>-1,33; 2,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,7</t>
+          <t>-1,65; 3,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 20,41</t>
+          <t>-1,0; 3,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 54,55</t>
+          <t>-2,45; 2,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 44,58</t>
+          <t>-37,25; 23,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 81,23</t>
+          <t>-17,64; 53,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 51,24</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-20,49; 54,78</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 84,59</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,4; 49,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-17,41%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,19%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-6,79%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>19,06%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>13,98%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-17,63%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.6351696832158061</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.021112218324754</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4253324483748676</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.0485371161323</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.856488538395312</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.451940283758231</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1145137796150883</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1689658484639646</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.06460754419775858</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1506702675481936</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1397982119255111</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1820626383419169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 1,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 3,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 2,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 5,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 3,65</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 1,61</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-50,56; 32,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-25,94; 66,24</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-42,15; 40,86</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-23,75; 93,78</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-26,21; 74,41</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-47,1; 25,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.328055017425394</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.78371337040299</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.487267213949325</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.375691483463842</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.873402518913724</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.718016202919618</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4724381760718557</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2567030653447747</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4190898161853628</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2747240628486732</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2620515656079735</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.4745428051445408</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.854962569828395</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.438096923005772</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.186967301487303</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.755147125419889</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.65080114837502</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.47363214381511</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4330848522876377</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.7133034210878623</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.4189223261922934</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8515545999384496</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.7441378196322932</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2473093752029405</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,89%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>14,19%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>67,61%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>181,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 4,19</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 2,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 5,06</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 4,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 8,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 9,14</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-40,88; 98,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,61; 105,5</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-34,93; 105,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-37,58; 78,23</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-42,5; 324,72</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>21,66; 686,63</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.8014777634795029</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4737570642059742</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6897680318321296</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3684782489995528</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.726634763049296</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>4.426426452085059</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1241550413154123</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1213767654628695</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1117198409972083</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.05082120860351132</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.6760869123850114</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.788902504351422</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,47</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-28,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-4,67%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>76,04%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>74,22%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.485533966987316</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.004190191477413</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.656400181497471</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.258179800661914</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.861834298758823</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1.18607415830433</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5163485257572377</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4057196000051089</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3613589037235745</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3711183261908859</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.4250142340581192</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.2114693644766989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; 4,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,27; 5,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 11,03</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 10,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-72,28; 71,67</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-57,87; 119,37</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-34,24; 291,01</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-53,62; 512,63</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.901367363105684</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.701738371295554</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.809651401106075</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.518529096192172</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.187065711819498</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>9.027283021172469</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6572720064538621</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9370703858402876</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9555542917993837</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.8311024363665039</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>3.247243191984544</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>6.823509793439143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-11,87%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,34%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>10,8%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,27%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>23,31%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.406879153618729</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2424980513068969</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.022540558223429</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.926103893123771</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.3163934418384325</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.02998835832755391</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.8005709923544281</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.8967211242787906</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 1,22</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 2,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 2,75</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 3,2</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 3,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 2,62</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-37,25; 23,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-17,64; 53,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-18,32; 51,24</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-20,49; 54,78</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-16,31; 84,59</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-32,4; 49,21</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.17293487983593</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.06753749065288</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.797604548966155</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.575373718619359</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7655963222881215</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5863073606025875</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3368609367730188</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4602414960310967</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.854129511898032</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.802819546916896</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.74985095468099</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.76657596521592</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.8230223475164804</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.125483087010747</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.977998193056754</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>5.876034720622045</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.071443640762928</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6937799620218031</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6286343372452221</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.132528976324056</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.310738715971755</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.03258021148884738</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1636087784128447</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.127582783843689</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.0985093119725233</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1675561177386813</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.2330633832823578</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.004907463972745342</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.318432611851158</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.130658876686869</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.328100604574652</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.958600599721647</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.001131595029103</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-2.581161478659237</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4168893978610984</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1795771249721881</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1857190899533939</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2281086596942654</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1631024946282939</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3286408946214506</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.8960405712309765</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.378581779363242</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.727347638815393</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.234349383576128</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.984982002853712</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.484581396291814</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1727848934198231</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5208445838920071</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.5086765829527558</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.550241781610058</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.8458872127032201</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.4798529191639196</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
